--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>3/2/23</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>3/9/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +555,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -563,6 +583,7 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -590,6 +611,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -613,6 +639,7 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3/8/23</t>
+          <t>3/1/23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>4/1/23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3/1/23</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3/2/23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>3/9/23</t>
         </is>
       </c>
     </row>
@@ -481,26 +466,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afzal</t>
+          <t>Nigel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,21 +479,6 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -532,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nigel</t>
+          <t>Abhay</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,29 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Present</t>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prakhar</t>
+          <t>Afzal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,18 +517,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cyril</t>
+          <t>Prakhar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -598,48 +531,43 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Present</t>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abhay</t>
+          <t>Avon</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>ABSENT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kainaat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,36 @@
           <t>4/1/23</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2/14/23</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1/11/23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>3/8/23</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>4/2/23</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2/15/23</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2/7/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +496,36 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +543,36 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +590,36 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +637,36 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +684,36 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +731,36 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -564,6 +774,36 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>2/7/23</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2/17/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +583,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +635,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +687,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +739,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,6 +791,11 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -804,6 +839,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>2/17/23</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>4/4/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,6 +541,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,6 +598,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -640,6 +655,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -692,6 +712,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -744,6 +769,11 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -796,6 +826,11 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -844,6 +879,11 @@
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3/1/23</t>
+          <t>1/2/23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>4/1/23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2/14/23</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1/11/23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>3/8/23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>4/2/23</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2/15/23</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2/7/23</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2/17/23</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>4/4/23</t>
         </is>
@@ -506,46 +466,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,46 +483,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -617,46 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Present</t>
         </is>
       </c>
@@ -677,46 +517,6 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,46 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>Present</t>
         </is>
       </c>
@@ -791,46 +551,6 @@
           <t>ABSENT</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -844,46 +564,6 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,6 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1/2/23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>4/4/23</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,16 +446,6 @@
           <t>Sumit</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -473,16 +453,6 @@
           <t>Nigel</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,16 +460,6 @@
           <t>Abhay</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -507,16 +467,6 @@
           <t>Afzal</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,16 +474,6 @@
           <t>Prakhar</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -541,31 +481,11 @@
           <t>Avon</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>Kainaat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,21 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2/7/23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>4/4/23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>4/3/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +461,21 @@
           <t>Sumit</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +483,21 @@
           <t>Nigel</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +505,21 @@
           <t>Abhay</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +527,21 @@
           <t>Afzal</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +549,21 @@
           <t>Prakhar</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,11 +571,41 @@
           <t>Avon</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>Kainaat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>4/3/23</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2/14/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -604,6 +639,11 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,41 +436,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2/7/23</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>4/4/23</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4/3/23</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2/14/23</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4/5/23</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Sumit</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>PRESENT</t>
@@ -486,18 +489,21 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Nigel</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>PRESENT</t>
@@ -513,18 +519,21 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Abhay</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>PRESENT</t>
@@ -540,18 +549,21 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Afzal</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>PRESENT</t>
@@ -567,18 +579,21 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Prakhar</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>PRESENT</t>
@@ -594,18 +609,21 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Avon</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>ABSENT</t>
@@ -621,18 +639,21 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Kainaat</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>ABSENT</t>
@@ -644,6 +665,11 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>4/5/23</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3/13/23</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1/13/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +504,16 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -524,6 +544,16 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -554,6 +584,16 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -584,6 +624,16 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,6 +664,16 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -644,6 +704,16 @@
           <t>ABSENT</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -670,6 +740,16 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Roll No</t>
+          <t>RollNo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,32 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2/7/23</t>
+          <t>1/12/2003</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4/4/23</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4/3/23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>4/5/23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>3/13/23</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1/13/23</t>
+          <t>4/10/23</t>
         </is>
       </c>
     </row>
@@ -486,32 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>
@@ -521,123 +481,63 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nigel</t>
+          <t>Afzal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abhay</t>
+          <t>Vaishnavi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Afzal</t>
+          <t>Abhay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -646,42 +546,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Avon</t>
+          <t>Kainaat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,26 +570,6 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>
@@ -717,11 +577,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kainaat</t>
+          <t>Abin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -734,22 +594,42 @@
           <t>ABSENT</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abhay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gauri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1/12/2003</t>
+          <t>4/10/23</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4/10/23</t>
+          <t>4/3/23</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>4/11/23</t>
         </is>
       </c>
     </row>
@@ -466,12 +471,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
@@ -486,42 +496,52 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vaishnavi</t>
+          <t>Prakhar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abhay</t>
+          <t>Kainaat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -532,16 +552,21 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prakhar</t>
+          <t>Abin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,25 +576,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRESENT</t>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kainaat</t>
+          <t>Abhay</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>
@@ -577,11 +612,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Abin</t>
+          <t>Gauri</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -594,42 +629,7 @@
           <t>ABSENT</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Abhay</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gauri</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4/3/23</t>
+          <t>4/11/23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4/11/23</t>
+          <t>4/9/23</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRESENT</t>
+          <t>ABSENT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRESENT</t>
+          <t>ABSENT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>4/10/23</t>
+          <t>4/23/23</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4/11/23</t>
+          <t>4/12/23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4/9/23</t>
+          <t>4/19/23</t>
         </is>
       </c>
     </row>
@@ -531,17 +531,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kainaat</t>
+          <t>Abin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abin</t>
+          <t>Gauri</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -581,27 +581,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abhay</t>
+          <t>Nigel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ABSENT</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,11 +612,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gauri</t>
+          <t>Ilyas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -630,6 +630,81 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mervin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TAYYABALI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4/12/23</t>
+          <t>4/11/23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4/19/23</t>
+          <t>2/13/23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2/14/23</t>
         </is>
       </c>
     </row>
@@ -481,13 +486,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>PRESENT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,6 +515,11 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>PRESENT</t>
         </is>
@@ -512,7 +527,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -530,6 +545,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>PRESENT</t>
         </is>
@@ -537,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -555,6 +575,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>PRESENT</t>
         </is>
@@ -562,16 +587,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gauri</t>
+          <t>Harsh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRESENT</t>
+          <t>ABSENT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -581,130 +606,10 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>63</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nigel</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>67</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ilyas</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>ABSENT</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PRESENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mervin</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>99</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TAYYABALI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ABSENT</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>2/14/23</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>4/24/23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -524,6 +534,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -554,6 +569,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -584,6 +604,11 @@
           <t>PRESENT</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -610,6 +635,11 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>ABSENT</t>
         </is>
